--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C853FB-52D3-46CF-8577-C712D66380AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BE8C70-B13A-43A5-9715-0CF3D690CD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -97,34 +97,22 @@
     <t>P32DR</t>
   </si>
   <si>
-    <t>PR1DS</t>
-  </si>
-  <si>
-    <t>PR8AS</t>
-  </si>
-  <si>
-    <t>ZXF</t>
-  </si>
-  <si>
-    <t>ZXFEV</t>
-  </si>
-  <si>
-    <t>NGC-3475/T1730</t>
-  </si>
-  <si>
     <t>Germany Market</t>
   </si>
   <si>
     <t>Belgium Market</t>
   </si>
   <si>
-    <t>NGC-3478/T2265/T2264/T2268</t>
-  </si>
-  <si>
     <t>Czech Market</t>
   </si>
   <si>
     <t>NGC-3477/T1738</t>
+  </si>
+  <si>
+    <t>NGC-3478/T2265/T2264/T2268/T2267</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1730/T1746</t>
   </si>
 </sst>
 </file>
@@ -546,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -595,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -668,31 +656,11 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -708,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" activeCellId="1" sqref="A18:XFD18 A19:XFD19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -757,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -830,31 +798,11 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -872,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE530DB-36D3-439D-9512-BDCF546A98C2}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -919,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BE8C70-B13A-43A5-9715-0CF3D690CD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069B37E-0827-41F8-9626-D5970F8405AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,18 @@
   </si>
   <si>
     <t>NGC-3475/T1730/T1746</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>P32AR-CH</t>
+  </si>
+  <si>
+    <t>P32DR-CH</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2347</t>
   </si>
 </sst>
 </file>
@@ -536,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +834,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,4 +969,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD90AC09-D95D-4D62-878C-DA83FF7B31C7}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069B37E-0827-41F8-9626-D5970F8405AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365DC20-4EB3-4420-860D-80A27FC87028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t>NGC-3476/T2347</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2407</t>
   </si>
 </sst>
 </file>
@@ -550,7 +557,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD90AC09-D95D-4D62-878C-DA83FF7B31C7}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1111,4 +1118,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423FA373-C643-4F16-AEBC-C8507B7CE3AC}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365DC20-4EB3-4420-860D-80A27FC87028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E335315-3C87-4256-8DE1-C146AFF522E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>NGC-3479/T2407</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3224</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423FA373-C643-4F16-AEBC-C8507B7CE3AC}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,4 +1267,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7016879A-5C35-4956-B52E-84B5E59F0DF5}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E335315-3C87-4256-8DE1-C146AFF522E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E00F8A6-3891-4AA2-B1F6-245944853DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3145/T2159/NGC-3145/T2159 </t>
   </si>
 </sst>
 </file>
@@ -564,7 +571,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7016879A-5C35-4956-B52E-84B5E59F0DF5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,4 +1406,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D74F3-D9E5-4703-B0DE-95446C04663A}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E00F8A6-3891-4AA2-B1F6-245944853DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E28566-C33D-44DC-8D35-428C999744C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -147,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3145/T2159/NGC-3145/T2159 </t>
+  </si>
+  <si>
+    <t>NGC-3103/T2037</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D74F3-D9E5-4703-B0DE-95446C04663A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,4 +1552,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F0A599-E79C-4049-A9B6-DBA7CBE3D32E}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E28566-C33D-44DC-8D35-428C999744C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9DE8B-E7D1-450C-9621-990A303DB444}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -1558,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F0A599-E79C-4049-A9B6-DBA7CBE3D32E}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1693,4 +1694,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C029CB8-DA4A-4E6C-99B7-B1BE20BB239C}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9DE8B-E7D1-450C-9621-990A303DB444}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA33BD-CEA5-4D0C-9CD3-1CF19CABF4CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Croatia" sheetId="21" r:id="rId9"/>
+    <sheet name="Greece" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -152,6 +153,18 @@
   </si>
   <si>
     <t>NGC-3103/T2037</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3169</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -713,6 +726,138 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66D3419-2333-467B-843F-598BF48DBB83}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D19"/>
@@ -1286,7 +1431,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,11 +1842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C029CB8-DA4A-4E6C-99B7-B1BE20BB239C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDE6BA8-AAB0-40B7-A391-B6AD46BF94FB}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1747,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA33BD-CEA5-4D0C-9CD3-1CF19CABF4CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF3C53-4374-4532-BD22-7C3DEAC30B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Croatia" sheetId="21" r:id="rId9"/>
     <sheet name="Greece" sheetId="22" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="23" r:id="rId11"/>
+    <sheet name="Austria" sheetId="24" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="25" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -165,6 +168,27 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2179</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2275</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>MZXSDR240</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2754</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -730,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66D3419-2333-467B-843F-598BF48DBB83}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -845,6 +869,417 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F2242E-1CD4-4DF0-BEEB-3DE92EF25DE1}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D55C6E-F21F-437F-BF71-12E90A5EBE25}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A6BDE7-E957-4A28-BA1D-0C5BFC1C922C}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF3C53-4374-4532-BD22-7C3DEAC30B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382CFE9-32A6-461B-B664-FAA8EABD00FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="23" r:id="rId11"/>
     <sheet name="Austria" sheetId="24" r:id="rId12"/>
     <sheet name="Denmark" sheetId="25" r:id="rId13"/>
+    <sheet name="Russia" sheetId="27" r:id="rId14"/>
+    <sheet name="Finland" sheetId="28" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="29" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -189,6 +192,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2037</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2945</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2994</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -886,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F2242E-1CD4-4DF0-BEEB-3DE92EF25DE1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1293,6 +1314,404 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CA9C10-BF68-4F12-94E0-DA2DB850DE1F}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49042A36-04DD-463E-B3C7-D17F30C9E55C}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41959BE0-FD97-4ADE-8043-61222F0B9A0F}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D19"/>

--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382CFE9-32A6-461B-B664-FAA8EABD00FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAEC52-CDEA-467A-BC73-CAF5D5045A7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="27" r:id="rId14"/>
     <sheet name="Finland" sheetId="28" r:id="rId15"/>
     <sheet name="Hungary" sheetId="29" r:id="rId16"/>
+    <sheet name="Norway" sheetId="30" r:id="rId17"/>
+    <sheet name="Poland" sheetId="31" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -210,6 +212,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3063</t>
+  </si>
+  <si>
+    <t>NorwayMarket</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3106</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41959BE0-FD97-4ADE-8043-61222F0B9A0F}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1632,6 +1646,275 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E1AC5B-8B1F-4449-A49E-C44E14DED8E3}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F5BFA0-D78D-40BD-81D5-0F55672E0AA8}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAEC52-CDEA-467A-BC73-CAF5D5045A7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF7751-47B5-4AEF-9995-6F68E276F288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="29" r:id="rId16"/>
     <sheet name="Norway" sheetId="30" r:id="rId17"/>
     <sheet name="Poland" sheetId="31" r:id="rId18"/>
+    <sheet name="UK" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="60">
   <si>
     <t>Wg</t>
   </si>
@@ -224,6 +225,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3345</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E1AC5B-8B1F-4449-A49E-C44E14DED8E3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1995,6 +2002,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9AB7DA-0AE9-46C5-BB48-2C6B5AAC803E}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D19"/>
